--- a/teaching/traditional_assets/database/data/jamaica/jamaica_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/jamaica/jamaica_bank_money_center.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1127</v>
+        <v>0.1034</v>
       </c>
       <c r="E2">
-        <v>0.1088</v>
+        <v>0.03684999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,103 +603,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.0003336481549044828</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>-0.0002557871179844704</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>304.8</v>
+        <v>198.3</v>
       </c>
       <c r="L2">
-        <v>0.2945496714340936</v>
+        <v>0.1909117165687879</v>
       </c>
       <c r="M2">
-        <v>159.83</v>
+        <v>105.6</v>
       </c>
       <c r="N2">
-        <v>0.03211953135990032</v>
+        <v>0.0313157972776608</v>
       </c>
       <c r="O2">
-        <v>0.5243766404199475</v>
+        <v>0.5325264750378215</v>
       </c>
       <c r="P2">
-        <v>152.7</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.03068668234159281</v>
+        <v>0.02191512707215089</v>
       </c>
       <c r="R2">
-        <v>0.5009842519685039</v>
+        <v>0.3726676752395361</v>
       </c>
       <c r="S2">
-        <v>7.129999999999995</v>
+        <v>31.7</v>
       </c>
       <c r="T2">
-        <v>0.04460989801664266</v>
+        <v>0.3001893939393939</v>
       </c>
       <c r="U2">
-        <v>1265.9</v>
+        <v>2219.4</v>
       </c>
       <c r="V2">
-        <v>0.2543960129418621</v>
+        <v>0.658165534829928</v>
       </c>
       <c r="W2">
-        <v>0.162552888240319</v>
+        <v>0.09784359519613492</v>
       </c>
       <c r="X2">
-        <v>0.07406967304429302</v>
+        <v>0.0810769765577076</v>
       </c>
       <c r="Y2">
-        <v>0.088483215196026</v>
+        <v>0.01676661863842732</v>
       </c>
       <c r="Z2">
-        <v>0.3769383801827399</v>
+        <v>0.397216007954263</v>
       </c>
       <c r="AA2">
-        <v>-0.001367793423095217</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.06754597088963932</v>
+        <v>0.06583408901779958</v>
       </c>
       <c r="AC2">
-        <v>-0.06891376431273454</v>
+        <v>-0.06583408901779958</v>
       </c>
       <c r="AD2">
-        <v>2739.4</v>
+        <v>3128.4</v>
       </c>
       <c r="AE2">
-        <v>30.67629555347579</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>2770.076295553476</v>
+        <v>3128.4</v>
       </c>
       <c r="AG2">
-        <v>1504.176295553476</v>
+        <v>909</v>
       </c>
       <c r="AH2">
-        <v>0.3576056353305021</v>
+        <v>0.481255288054765</v>
       </c>
       <c r="AI2">
-        <v>0.5485325342997232</v>
+        <v>0.5883215796897038</v>
       </c>
       <c r="AJ2">
-        <v>0.2321160745237955</v>
+        <v>0.2123286071336806</v>
       </c>
       <c r="AK2">
-        <v>0.3975015771539744</v>
+        <v>0.2934056357122107</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>473.126079447323</v>
-      </c>
-      <c r="AP2">
-        <v>259.7886520817748</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0344</v>
+        <v>0.0168</v>
       </c>
       <c r="E3">
-        <v>0.0266</v>
+        <v>-0.0182</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,34 +725,34 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.003691837355207943</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.002595678807706669</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>84.3</v>
+        <v>62.2</v>
       </c>
       <c r="L3">
-        <v>0.2826961770623743</v>
+        <v>0.2368621477532369</v>
       </c>
       <c r="M3">
-        <v>90.90000000000001</v>
+        <v>35.3</v>
       </c>
       <c r="N3">
-        <v>0.06979422604422604</v>
+        <v>0.03607562595809913</v>
       </c>
       <c r="O3">
-        <v>1.078291814946619</v>
+        <v>0.5675241157556269</v>
       </c>
       <c r="P3">
-        <v>90.90000000000001</v>
+        <v>35.3</v>
       </c>
       <c r="Q3">
-        <v>0.06979422604422604</v>
+        <v>0.03607562595809913</v>
       </c>
       <c r="R3">
-        <v>1.078291814946619</v>
+        <v>0.5675241157556269</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,67 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>694.7</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.709964230965764</v>
       </c>
       <c r="W3">
-        <v>0.09743411927877947</v>
+        <v>0.07198240944335146</v>
       </c>
       <c r="X3">
-        <v>0.06219283130282734</v>
+        <v>0.05746860477704602</v>
       </c>
       <c r="Y3">
-        <v>0.03524128797595213</v>
+        <v>0.01451380466630545</v>
       </c>
       <c r="Z3">
-        <v>1.151108998477853</v>
+        <v>1.358158779415567</v>
       </c>
       <c r="AA3">
-        <v>-0.002987909232709411</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06213389273524114</v>
+        <v>0.05746860477704602</v>
       </c>
       <c r="AC3">
-        <v>-0.06512180196795056</v>
+        <v>-0.05746860477704602</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>11.85452949661504</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.85452949661504</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>11.85452949661504</v>
+        <v>-694.7</v>
       </c>
       <c r="AH3">
-        <v>0.009019964725672704</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.01320758695659811</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.009019964725672704</v>
+        <v>-2.44785059901339</v>
       </c>
       <c r="AK3">
-        <v>0.01320758695659811</v>
+        <v>-10.4152923538231</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>9.334275194185073</v>
       </c>
     </row>
     <row r="4">
@@ -847,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="E4">
-        <v>0.191</v>
+        <v>0.0919</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -859,103 +847,97 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001025857709242261</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0008516554567294246</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>220.5</v>
+        <v>136.1</v>
       </c>
       <c r="L4">
-        <v>0.2993483573174043</v>
+        <v>0.1753639994846025</v>
       </c>
       <c r="M4">
-        <v>68.92999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="N4">
-        <v>0.01876309987206359</v>
+        <v>0.02936998663101604</v>
       </c>
       <c r="O4">
-        <v>0.3126077097505668</v>
+        <v>0.5165319617927994</v>
       </c>
       <c r="P4">
-        <v>61.8</v>
+        <v>38.6</v>
       </c>
       <c r="Q4">
-        <v>0.01682227726814928</v>
+        <v>0.01612633689839572</v>
       </c>
       <c r="R4">
-        <v>0.2802721088435374</v>
+        <v>0.2836149889786921</v>
       </c>
       <c r="S4">
-        <v>7.129999999999995</v>
+        <v>31.7</v>
       </c>
       <c r="T4">
-        <v>0.1034382707094153</v>
+        <v>0.4509246088193456</v>
       </c>
       <c r="U4">
-        <v>1265.9</v>
+        <v>1524.7</v>
       </c>
       <c r="V4">
-        <v>0.3445844788632714</v>
+        <v>0.6369903074866311</v>
       </c>
       <c r="W4">
-        <v>0.2276716572018586</v>
+        <v>0.1237047809489184</v>
       </c>
       <c r="X4">
-        <v>0.0859465147857587</v>
+        <v>0.1046853483383692</v>
       </c>
       <c r="Y4">
-        <v>0.1417251424160998</v>
+        <v>0.0190194326105492</v>
       </c>
       <c r="Z4">
-        <v>0.2962728466367845</v>
+        <v>0.3204905847373637</v>
       </c>
       <c r="AA4">
-        <v>0.0002523223865189776</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07295804904403749</v>
+        <v>0.07419957325855314</v>
       </c>
       <c r="AC4">
-        <v>-0.07270572665751851</v>
+        <v>-0.07419957325855314</v>
       </c>
       <c r="AD4">
-        <v>2739.4</v>
+        <v>3128.4</v>
       </c>
       <c r="AE4">
-        <v>18.82176605686075</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2758.221766056861</v>
+        <v>3128.4</v>
       </c>
       <c r="AG4">
-        <v>1492.321766056861</v>
+        <v>1603.7</v>
       </c>
       <c r="AH4">
-        <v>0.4288332268922807</v>
+        <v>0.5665338645418326</v>
       </c>
       <c r="AI4">
-        <v>0.6642441258263772</v>
+        <v>0.6866398893790742</v>
       </c>
       <c r="AJ4">
-        <v>0.2888725277663561</v>
+        <v>0.4011958071698397</v>
       </c>
       <c r="AK4">
-        <v>0.5169965401284502</v>
+        <v>0.5290294913241407</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>606.061946902655</v>
-      </c>
-      <c r="AP4">
-        <v>330.1596827559427</v>
       </c>
     </row>
   </sheetData>
